--- a/raw_data/20200818_saline/20200818_Sensor0_Test_56.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_56.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3215ABF7-53B7-4208-90D7-2896C9CA59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>49502.897076</v>
+        <v>49502.897076000001</v>
       </c>
       <c r="B2" s="1">
         <v>13.750805</v>
       </c>
       <c r="C2" s="1">
-        <v>906.351000</v>
+        <v>906.351</v>
       </c>
       <c r="D2" s="1">
-        <v>-193.288000</v>
+        <v>-193.28800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>49512.990135</v>
@@ -496,13 +912,13 @@
         <v>13.753608</v>
       </c>
       <c r="H2" s="1">
-        <v>922.376000</v>
+        <v>922.37599999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.062000</v>
+        <v>-164.06200000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>49523.070861</v>
@@ -511,133 +927,133 @@
         <v>13.756409</v>
       </c>
       <c r="M2" s="1">
-        <v>944.548000</v>
+        <v>944.548</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.014000</v>
+        <v>-118.014</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>49533.284612</v>
+        <v>49533.284612000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>13.759246</v>
+        <v>13.759245999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>951.103000</v>
+        <v>951.10299999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.016000</v>
+        <v>-103.01600000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>49543.876050</v>
+        <v>49543.876049999999</v>
       </c>
       <c r="V2" s="1">
         <v>13.762188</v>
       </c>
       <c r="W2" s="1">
-        <v>957.511000</v>
+        <v>957.51099999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.455100</v>
+        <v>-89.455100000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>49554.683345</v>
+        <v>49554.683344999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>13.765190</v>
+        <v>13.76519</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.622000</v>
+        <v>964.62199999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.309100</v>
+        <v>-80.309100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>49565.238705</v>
+        <v>49565.238705000003</v>
       </c>
       <c r="AF2" s="1">
         <v>13.768122</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.707000</v>
+        <v>969.70699999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.964600</v>
+        <v>-79.964600000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>49576.004408</v>
+        <v>49576.004408000001</v>
       </c>
       <c r="AK2" s="1">
         <v>13.771112</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.614000</v>
+        <v>977.61400000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.031900</v>
+        <v>-88.031899999999993</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>49586.592469</v>
+        <v>49586.592469000003</v>
       </c>
       <c r="AP2" s="1">
         <v>13.774053</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.867000</v>
+        <v>986.86699999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.150000</v>
+        <v>-103.15</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>49597.560504</v>
+        <v>49597.560504000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.777100</v>
+        <v>13.777100000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.345000</v>
+        <v>998.34500000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.878000</v>
+        <v>-124.878</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>49608.618313</v>
+        <v>49608.618312999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.780172</v>
       </c>
       <c r="BA2" s="1">
-        <v>1008.090000</v>
+        <v>1008.09</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.765000</v>
+        <v>-143.76499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>49619.341817</v>
@@ -646,135 +1062,135 @@
         <v>13.783151</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.790000</v>
+        <v>1053.79</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.942000</v>
+        <v>-228.94200000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>49630.352507</v>
+        <v>49630.352507000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>13.786209</v>
+        <v>13.786208999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1133.600000</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.467000</v>
+        <v>-365.46699999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>49641.116686</v>
+        <v>49641.116686000001</v>
       </c>
       <c r="BO2" s="1">
         <v>13.789199</v>
       </c>
       <c r="BP2" s="1">
-        <v>1265.220000</v>
+        <v>1265.22</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-576.669000</v>
+        <v>-576.66899999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>49651.496463</v>
+        <v>49651.496463000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>13.792082</v>
+        <v>13.792082000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.350000</v>
+        <v>1413.35</v>
       </c>
       <c r="BV2" s="1">
-        <v>-802.930000</v>
+        <v>-802.93</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>49662.959008</v>
+        <v>49662.959007999998</v>
       </c>
       <c r="BY2" s="1">
         <v>13.795266</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.470000</v>
+        <v>1575.47</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1038.930000</v>
+        <v>-1038.93</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>49674.133409</v>
+        <v>49674.133409000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.798370</v>
+        <v>13.79837</v>
       </c>
       <c r="CE2" s="1">
-        <v>1987.330000</v>
+        <v>1987.33</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1591.720000</v>
+        <v>-1591.72</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>49503.305748</v>
+        <v>49503.305747999999</v>
       </c>
       <c r="B3" s="1">
         <v>13.750918</v>
       </c>
       <c r="C3" s="1">
-        <v>906.234000</v>
+        <v>906.23400000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-193.358000</v>
+        <v>-193.358</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>49513.336345</v>
+        <v>49513.336345000003</v>
       </c>
       <c r="G3" s="1">
         <v>13.753705</v>
       </c>
       <c r="H3" s="1">
-        <v>922.729000</v>
+        <v>922.72900000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-164.215000</v>
+        <v>-164.215</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>49523.492922</v>
+        <v>49523.492921999998</v>
       </c>
       <c r="L3" s="1">
-        <v>13.756526</v>
+        <v>13.756525999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>944.544000</v>
+        <v>944.54399999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.852000</v>
+        <v>-117.852</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>49533.711035</v>
@@ -783,88 +1199,88 @@
         <v>13.759364</v>
       </c>
       <c r="R3" s="1">
-        <v>951.103000</v>
+        <v>951.10299999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.027000</v>
+        <v>-103.027</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>49544.272349</v>
+        <v>49544.272348999999</v>
       </c>
       <c r="V3" s="1">
-        <v>13.762298</v>
+        <v>13.762297999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>957.393000</v>
+        <v>957.39300000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.652300</v>
+        <v>-89.652299999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>49555.053887</v>
+        <v>49555.053887000002</v>
       </c>
       <c r="AA3" s="1">
         <v>13.765293</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.720000</v>
+        <v>964.72</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.306700</v>
+        <v>-80.306700000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>49565.608722</v>
+        <v>49565.608721999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>13.768225</v>
+        <v>13.768224999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.614000</v>
+        <v>969.61400000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.048900</v>
+        <v>-80.048900000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49576.390786</v>
+        <v>49576.390786000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>13.771220</v>
+        <v>13.77122</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.639000</v>
+        <v>977.63900000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.029200</v>
+        <v>-88.029200000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>49587.342421</v>
+        <v>49587.342421000001</v>
       </c>
       <c r="AP3" s="1">
         <v>13.774262</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.883000</v>
+        <v>986.88300000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.170000</v>
+        <v>-103.17</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>49597.981646</v>
@@ -873,165 +1289,165 @@
         <v>13.777217</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.370000</v>
+        <v>998.37</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.881000</v>
+        <v>-124.881</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>49609.006184</v>
+        <v>49609.006183999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>13.780279</v>
       </c>
       <c r="BA3" s="1">
-        <v>1008.070000</v>
+        <v>1008.07</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>49619.704891</v>
+        <v>49619.704891000001</v>
       </c>
       <c r="BE3" s="1">
         <v>13.783251</v>
       </c>
       <c r="BF3" s="1">
-        <v>1053.790000</v>
+        <v>1053.79</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.949000</v>
+        <v>-228.94900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>49630.741904</v>
+        <v>49630.741904000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>13.786317</v>
       </c>
       <c r="BK3" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.499000</v>
+        <v>-365.49900000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>49641.858715</v>
+        <v>49641.858715000002</v>
       </c>
       <c r="BO3" s="1">
         <v>13.789405</v>
       </c>
       <c r="BP3" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-576.709000</v>
+        <v>-576.70899999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>49652.248895</v>
+        <v>49652.248894999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>13.792291</v>
+        <v>13.792291000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.390000</v>
+        <v>1413.39</v>
       </c>
       <c r="BV3" s="1">
-        <v>-802.939000</v>
+        <v>-802.93899999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>49663.137569</v>
+        <v>49663.137568999999</v>
       </c>
       <c r="BY3" s="1">
         <v>13.795316</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.450000</v>
+        <v>1575.45</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1039.040000</v>
+        <v>-1039.04</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>49674.726098</v>
+        <v>49674.726097999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>13.798535</v>
+        <v>13.798534999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.880000</v>
+        <v>1985.88</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1590.540000</v>
+        <v>-1590.54</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>49503.725859</v>
+        <v>49503.725858999998</v>
       </c>
       <c r="B4" s="1">
         <v>13.751035</v>
       </c>
       <c r="C4" s="1">
-        <v>906.252000</v>
+        <v>906.25199999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-193.294000</v>
+        <v>-193.29400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>49513.768854</v>
+        <v>49513.768854000002</v>
       </c>
       <c r="G4" s="1">
-        <v>13.753825</v>
+        <v>13.753825000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>923.003000</v>
+        <v>923.00300000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-164.022000</v>
+        <v>-164.02199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>49523.835161</v>
+        <v>49523.835161000003</v>
       </c>
       <c r="L4" s="1">
-        <v>13.756621</v>
+        <v>13.756621000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.583000</v>
+        <v>944.58299999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.097000</v>
+        <v>-118.09699999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>49534.048315</v>
@@ -1040,73 +1456,73 @@
         <v>13.759458</v>
       </c>
       <c r="R4" s="1">
-        <v>951.085000</v>
+        <v>951.08500000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.055000</v>
+        <v>-103.05500000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>49544.616059</v>
       </c>
       <c r="V4" s="1">
-        <v>13.762393</v>
+        <v>13.762392999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>957.519000</v>
+        <v>957.51900000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.564900</v>
+        <v>-89.564899999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>49555.404030</v>
+        <v>49555.404029999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>13.765390</v>
+        <v>13.76539</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.675000</v>
+        <v>964.67499999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.280800</v>
+        <v>-80.280799999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>49565.949968</v>
+        <v>49565.949968000001</v>
       </c>
       <c r="AF4" s="1">
         <v>13.768319</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.640000</v>
+        <v>969.64</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.042100</v>
+        <v>-80.042100000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>49577.087179</v>
+        <v>49577.087179000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>13.771413</v>
+        <v>13.771413000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.598000</v>
+        <v>977.59799999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.051800</v>
+        <v>-88.0518</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>49587.702524</v>
@@ -1115,88 +1531,88 @@
         <v>13.774362</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.862000</v>
+        <v>986.86199999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.157000</v>
+        <v>-103.157</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>49598.335290</v>
+        <v>49598.335290000003</v>
       </c>
       <c r="AU4" s="1">
         <v>13.777315</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.370000</v>
+        <v>998.37</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.890000</v>
+        <v>-124.89</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>49609.367767</v>
+        <v>49609.367767000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>13.780380</v>
+        <v>13.780379999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1008.090000</v>
+        <v>1008.09</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.742000</v>
+        <v>-143.74199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>49620.366553</v>
       </c>
       <c r="BE4" s="1">
-        <v>13.783435</v>
+        <v>13.783435000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.780000</v>
+        <v>1053.78</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.962000</v>
+        <v>-228.96199999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>49631.435274</v>
+        <v>49631.435274000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>13.786510</v>
+        <v>13.78651</v>
       </c>
       <c r="BK4" s="1">
-        <v>1133.580000</v>
+        <v>1133.58</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.466000</v>
+        <v>-365.46600000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>49641.967820</v>
+        <v>49641.967819999998</v>
       </c>
       <c r="BO4" s="1">
         <v>13.789436</v>
       </c>
       <c r="BP4" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-576.753000</v>
+        <v>-576.75300000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>49652.798959</v>
@@ -1205,255 +1621,255 @@
         <v>13.792444</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.390000</v>
+        <v>1413.39</v>
       </c>
       <c r="BV4" s="1">
-        <v>-802.937000</v>
+        <v>-802.93700000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>49663.586479</v>
+        <v>49663.586478999998</v>
       </c>
       <c r="BY4" s="1">
         <v>13.795441</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.300000</v>
+        <v>1575.3</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1039.010000</v>
+        <v>-1039.01</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>49675.266271</v>
       </c>
       <c r="CD4" s="1">
-        <v>13.798685</v>
+        <v>13.798685000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1985.890000</v>
+        <v>1985.89</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1592.500000</v>
+        <v>-1592.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>49503.998658</v>
+        <v>49503.998657999997</v>
       </c>
       <c r="B5" s="1">
         <v>13.751111</v>
       </c>
       <c r="C5" s="1">
-        <v>906.235000</v>
+        <v>906.23500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-193.254000</v>
+        <v>-193.25399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>49514.024790</v>
+        <v>49514.024790000003</v>
       </c>
       <c r="G5" s="1">
-        <v>13.753896</v>
+        <v>13.753895999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>923.086000</v>
+        <v>923.08600000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.064000</v>
+        <v>-164.06399999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>49524.185335</v>
+        <v>49524.185335000002</v>
       </c>
       <c r="L5" s="1">
-        <v>13.756718</v>
+        <v>13.756717999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>944.558000</v>
+        <v>944.55799999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.939000</v>
+        <v>-117.93899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>49534.394523</v>
+        <v>49534.394523000003</v>
       </c>
       <c r="Q5" s="1">
         <v>13.759554</v>
       </c>
       <c r="R5" s="1">
-        <v>951.040000</v>
+        <v>951.04</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.979000</v>
+        <v>-102.979</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>49544.960269</v>
+        <v>49544.960269000003</v>
       </c>
       <c r="V5" s="1">
         <v>13.762489</v>
       </c>
       <c r="W5" s="1">
-        <v>957.473000</v>
+        <v>957.47299999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.527400</v>
+        <v>-89.5274</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>49556.099918</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.765583</v>
+        <v>13.765582999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.684000</v>
+        <v>964.68399999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.276800</v>
+        <v>-80.276799999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>49566.637460</v>
+        <v>49566.637459999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>13.768510</v>
+        <v>13.768509999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.666000</v>
+        <v>969.66600000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.104200</v>
+        <v>-80.104200000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>49577.437839</v>
+        <v>49577.437838999998</v>
       </c>
       <c r="AK5" s="1">
         <v>13.771511</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.601000</v>
+        <v>977.601</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.032000</v>
+        <v>-88.031999999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>49588.064099</v>
+        <v>49588.064099000003</v>
       </c>
       <c r="AP5" s="1">
         <v>13.774462</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.881000</v>
+        <v>986.88099999999997</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.157000</v>
+        <v>-103.157</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>49598.696373</v>
+        <v>49598.696372999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>13.777416</v>
+        <v>13.777416000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.343000</v>
+        <v>998.34299999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.894000</v>
+        <v>-124.89400000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>49610.031453</v>
+        <v>49610.031453000003</v>
       </c>
       <c r="AZ5" s="1">
         <v>13.780564</v>
       </c>
       <c r="BA5" s="1">
-        <v>1008.100000</v>
+        <v>1008.1</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>49620.824361</v>
+        <v>49620.824360999999</v>
       </c>
       <c r="BE5" s="1">
         <v>13.783562</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.780000</v>
+        <v>1053.78</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.970000</v>
+        <v>-228.97</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>49631.898042</v>
+        <v>49631.898042000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>13.786638</v>
       </c>
       <c r="BK5" s="1">
-        <v>1133.620000</v>
+        <v>1133.6199999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.497000</v>
+        <v>-365.49700000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>49642.387435</v>
+        <v>49642.387434999997</v>
       </c>
       <c r="BO5" s="1">
         <v>13.789552</v>
       </c>
       <c r="BP5" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-576.739000</v>
+        <v>-576.73900000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>49653.232957</v>
@@ -1462,135 +1878,135 @@
         <v>13.792565</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.440000</v>
+        <v>1413.44</v>
       </c>
       <c r="BV5" s="1">
-        <v>-802.948000</v>
+        <v>-802.94799999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>49664.008580</v>
+        <v>49664.008580000002</v>
       </c>
       <c r="BY5" s="1">
         <v>13.795558</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.510000</v>
+        <v>1575.51</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1039.080000</v>
+        <v>-1039.08</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>49675.803935</v>
+        <v>49675.803935000004</v>
       </c>
       <c r="CD5" s="1">
-        <v>13.798834</v>
+        <v>13.798833999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1986.910000</v>
+        <v>1986.91</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1590.510000</v>
+        <v>-1590.51</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>49504.342387</v>
+        <v>49504.342386999997</v>
       </c>
       <c r="B6" s="1">
         <v>13.751206</v>
       </c>
       <c r="C6" s="1">
-        <v>906.208000</v>
+        <v>906.20799999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-193.288000</v>
+        <v>-193.28800000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>49514.370500</v>
+        <v>49514.370499999997</v>
       </c>
       <c r="G6" s="1">
         <v>13.753992</v>
       </c>
       <c r="H6" s="1">
-        <v>922.763000</v>
+        <v>922.76300000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-164.308000</v>
+        <v>-164.30799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>49524.529063</v>
+        <v>49524.529063000002</v>
       </c>
       <c r="L6" s="1">
         <v>13.756814</v>
       </c>
       <c r="M6" s="1">
-        <v>944.606000</v>
+        <v>944.60599999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.046000</v>
+        <v>-118.04600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>49534.747145</v>
+        <v>49534.747145000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.759652</v>
+        <v>13.759652000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>951.051000</v>
+        <v>951.05100000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.975000</v>
+        <v>-102.97499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>49545.647227</v>
+        <v>49545.647227000001</v>
       </c>
       <c r="V6" s="1">
-        <v>13.762680</v>
+        <v>13.76268</v>
       </c>
       <c r="W6" s="1">
-        <v>957.433000</v>
+        <v>957.43299999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.594900</v>
+        <v>-89.594899999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>49556.449178</v>
+        <v>49556.449178000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>13.765680</v>
+        <v>13.76568</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.704000</v>
+        <v>964.70399999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.350700</v>
+        <v>-80.350700000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>49566.987598</v>
@@ -1599,88 +2015,88 @@
         <v>13.768608</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.749000</v>
+        <v>969.74900000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.985900</v>
+        <v>-79.985900000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>49577.784547</v>
+        <v>49577.784547000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.771607</v>
+        <v>13.771606999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.633000</v>
+        <v>977.63300000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.046100</v>
+        <v>-88.046099999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>49588.736178</v>
+        <v>49588.736177999999</v>
       </c>
       <c r="AP6" s="1">
         <v>13.774649</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.867000</v>
+        <v>986.86699999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.168000</v>
+        <v>-103.16800000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>49599.387304</v>
+        <v>49599.387304000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>13.777608</v>
+        <v>13.777608000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.354000</v>
+        <v>998.35400000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.884000</v>
+        <v>-124.884</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>49610.476822</v>
+        <v>49610.476821999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>13.780688</v>
       </c>
       <c r="BA6" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.735000</v>
+        <v>-143.73500000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>49621.183959</v>
+        <v>49621.183959000002</v>
       </c>
       <c r="BE6" s="1">
         <v>13.783662</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.760000</v>
+        <v>1053.76</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.949000</v>
+        <v>-228.94900000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>49632.274008</v>
@@ -1689,557 +2105,557 @@
         <v>13.786743</v>
       </c>
       <c r="BK6" s="1">
-        <v>1133.570000</v>
+        <v>1133.57</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.470000</v>
+        <v>-365.47</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>49642.785263</v>
+        <v>49642.785262999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.789663</v>
+        <v>13.789662999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1265.230000</v>
+        <v>1265.23</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-576.742000</v>
+        <v>-576.74199999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>49653.657127</v>
+        <v>49653.657126999999</v>
       </c>
       <c r="BT6" s="1">
         <v>13.792683</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.410000</v>
+        <v>1413.41</v>
       </c>
       <c r="BV6" s="1">
-        <v>-802.909000</v>
+        <v>-802.90899999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>49664.435598</v>
+        <v>49664.435597999996</v>
       </c>
       <c r="BY6" s="1">
         <v>13.795677</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.480000</v>
+        <v>1575.48</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1039.040000</v>
+        <v>-1039.04</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>49676.346032</v>
+        <v>49676.346032000001</v>
       </c>
       <c r="CD6" s="1">
         <v>13.798985</v>
       </c>
       <c r="CE6" s="1">
-        <v>1985.050000</v>
+        <v>1985.05</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1591.760000</v>
+        <v>-1591.76</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>49504.681681</v>
+        <v>49504.681681000002</v>
       </c>
       <c r="B7" s="1">
-        <v>13.751300</v>
+        <v>13.751300000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>906.234000</v>
+        <v>906.23400000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-193.293000</v>
+        <v>-193.29300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>49514.712740</v>
+        <v>49514.712740000003</v>
       </c>
       <c r="G7" s="1">
         <v>13.754087</v>
       </c>
       <c r="H7" s="1">
-        <v>922.684000</v>
+        <v>922.68399999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.464000</v>
+        <v>-163.464</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>49525.222507</v>
+        <v>49525.222506999999</v>
       </c>
       <c r="L7" s="1">
-        <v>13.757006</v>
+        <v>13.757006000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>944.404000</v>
+        <v>944.404</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.968000</v>
+        <v>-117.968</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>49535.440057</v>
       </c>
       <c r="Q7" s="1">
-        <v>13.759844</v>
+        <v>13.759843999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>951.087000</v>
+        <v>951.08699999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.962000</v>
+        <v>-102.962</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>49545.990954</v>
+        <v>49545.990954000001</v>
       </c>
       <c r="V7" s="1">
         <v>13.762775</v>
       </c>
       <c r="W7" s="1">
-        <v>957.371000</v>
+        <v>957.37099999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.636000</v>
+        <v>-89.635999999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>49556.798285</v>
+        <v>49556.798284999997</v>
       </c>
       <c r="AA7" s="1">
         <v>13.765777</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.676000</v>
+        <v>964.67600000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.359200</v>
+        <v>-80.359200000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>49567.330334</v>
+        <v>49567.330333999998</v>
       </c>
       <c r="AF7" s="1">
         <v>13.768703</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.585000</v>
+        <v>969.58500000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.184600</v>
+        <v>-80.184600000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>49578.433808</v>
+        <v>49578.433808000002</v>
       </c>
       <c r="AK7" s="1">
         <v>13.771787</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.620000</v>
+        <v>977.62</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.033200</v>
+        <v>-88.033199999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>49589.175138</v>
+        <v>49589.175137999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.774771</v>
+        <v>13.774770999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.862000</v>
+        <v>986.86199999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.166000</v>
+        <v>-103.166</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>49599.820810</v>
+        <v>49599.820809999997</v>
       </c>
       <c r="AU7" s="1">
         <v>13.777728</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.353000</v>
+        <v>998.35299999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.888000</v>
+        <v>-124.88800000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>49610.834436</v>
+        <v>49610.834435999997</v>
       </c>
       <c r="AZ7" s="1">
         <v>13.780787</v>
       </c>
       <c r="BA7" s="1">
-        <v>1008.050000</v>
+        <v>1008.05</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.764000</v>
+        <v>-143.76400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>49621.546040</v>
+        <v>49621.546040000001</v>
       </c>
       <c r="BE7" s="1">
         <v>13.783763</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.780000</v>
+        <v>1053.78</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.945000</v>
+        <v>-228.94499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>49632.658940</v>
+        <v>49632.658940000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.786850</v>
+        <v>13.786849999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1133.570000</v>
+        <v>1133.57</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.470000</v>
+        <v>-365.47</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>49643.218730</v>
+        <v>49643.218730000001</v>
       </c>
       <c r="BO7" s="1">
         <v>13.789783</v>
       </c>
       <c r="BP7" s="1">
-        <v>1265.230000</v>
+        <v>1265.23</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-576.757000</v>
+        <v>-576.75699999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>49654.078176</v>
+        <v>49654.078176000003</v>
       </c>
       <c r="BT7" s="1">
         <v>13.792799</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV7" s="1">
-        <v>-802.919000</v>
+        <v>-802.91899999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>49664.857695</v>
+        <v>49664.857694999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>13.795794</v>
+        <v>13.795794000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1575.510000</v>
+        <v>1575.51</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1039.090000</v>
+        <v>-1039.0899999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>49676.887198</v>
+        <v>49676.887197999997</v>
       </c>
       <c r="CD7" s="1">
         <v>13.799135</v>
       </c>
       <c r="CE7" s="1">
-        <v>1987.180000</v>
+        <v>1987.18</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1591.700000</v>
+        <v>-1591.7</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>49505.365668</v>
+        <v>49505.365667999999</v>
       </c>
       <c r="B8" s="1">
-        <v>13.751490</v>
+        <v>13.75149</v>
       </c>
       <c r="C8" s="1">
-        <v>906.214000</v>
+        <v>906.21400000000006</v>
       </c>
       <c r="D8" s="1">
-        <v>-193.427000</v>
+        <v>-193.42699999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>49515.406675</v>
+        <v>49515.406674999998</v>
       </c>
       <c r="G8" s="1">
-        <v>13.754280</v>
+        <v>13.75428</v>
       </c>
       <c r="H8" s="1">
-        <v>922.610000</v>
+        <v>922.61</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.850000</v>
+        <v>-163.85</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>49525.568183</v>
+        <v>49525.568183000003</v>
       </c>
       <c r="L8" s="1">
         <v>13.757102</v>
       </c>
       <c r="M8" s="1">
-        <v>944.629000</v>
+        <v>944.62900000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.999000</v>
+        <v>-117.999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>49535.790232</v>
+        <v>49535.790231999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>13.759942</v>
+        <v>13.759942000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>951.108000</v>
+        <v>951.10799999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.981000</v>
+        <v>-102.98099999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>49546.335178</v>
+        <v>49546.335178000001</v>
       </c>
       <c r="V8" s="1">
-        <v>13.762871</v>
+        <v>13.762871000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>957.468000</v>
+        <v>957.46799999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.615200</v>
+        <v>-89.615200000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>49557.455986</v>
+        <v>49557.455986000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>13.765960</v>
+        <v>13.76596</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.662000</v>
+        <v>964.66200000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.368700</v>
+        <v>-80.368700000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>49567.988526</v>
+        <v>49567.988526000001</v>
       </c>
       <c r="AF8" s="1">
         <v>13.768886</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.602000</v>
+        <v>969.60199999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.951900</v>
+        <v>-79.951899999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>49578.832065</v>
+        <v>49578.832065000002</v>
       </c>
       <c r="AK8" s="1">
         <v>13.771898</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.590000</v>
+        <v>977.59</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.042400</v>
+        <v>-88.042400000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>49589.535234</v>
+        <v>49589.535234000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>13.774871</v>
+        <v>13.774870999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.871000</v>
+        <v>986.87099999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.160000</v>
+        <v>-103.16</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>49600.185859</v>
+        <v>49600.185858999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>13.777829</v>
+        <v>13.777829000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.366000</v>
+        <v>998.36599999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.893000</v>
+        <v>-124.893</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>49611.193054</v>
+        <v>49611.193054000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.780887</v>
       </c>
       <c r="BA8" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.750000</v>
+        <v>-143.75</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>49621.961687</v>
+        <v>49621.961687000003</v>
       </c>
       <c r="BE8" s="1">
         <v>13.783878</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.800000</v>
+        <v>1053.8</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.980000</v>
+        <v>-228.98</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>49633.083516</v>
+        <v>49633.083515999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>13.786968</v>
       </c>
       <c r="BK8" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.462000</v>
+        <v>-365.46199999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>49643.606106</v>
+        <v>49643.606105999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>13.789891</v>
+        <v>13.789891000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1265.280000</v>
+        <v>1265.28</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-576.734000</v>
+        <v>-576.73400000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>49654.504237</v>
+        <v>49654.504237000001</v>
       </c>
       <c r="BT8" s="1">
         <v>13.792918</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.370000</v>
+        <v>1413.37</v>
       </c>
       <c r="BV8" s="1">
-        <v>-802.821000</v>
+        <v>-802.82100000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>49665.273342</v>
@@ -2248,31 +2664,31 @@
         <v>13.795909</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1575.450000</v>
+        <v>1575.45</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1038.930000</v>
+        <v>-1038.93</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>49677.425326</v>
+        <v>49677.425325999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.799285</v>
+        <v>13.799284999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1985.620000</v>
+        <v>1985.62</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1590.840000</v>
+        <v>-1590.84</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>49505.708864</v>
       </c>
@@ -2280,163 +2696,163 @@
         <v>13.751586</v>
       </c>
       <c r="C9" s="1">
-        <v>906.338000</v>
+        <v>906.33799999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-193.333000</v>
+        <v>-193.333</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>49515.751860</v>
+        <v>49515.751859999997</v>
       </c>
       <c r="G9" s="1">
-        <v>13.754376</v>
+        <v>13.754376000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>922.382000</v>
+        <v>922.38199999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-164.450000</v>
+        <v>-164.45</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>49525.920341</v>
+        <v>49525.920340999997</v>
       </c>
       <c r="L9" s="1">
-        <v>13.757200</v>
+        <v>13.757199999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>944.550000</v>
+        <v>944.55</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.949000</v>
+        <v>-117.949</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>49536.452920</v>
+        <v>49536.452920000003</v>
       </c>
       <c r="Q9" s="1">
         <v>13.760126</v>
       </c>
       <c r="R9" s="1">
-        <v>951.067000</v>
+        <v>951.06700000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.028000</v>
+        <v>-103.02800000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>49546.992377</v>
+        <v>49546.992377000002</v>
       </c>
       <c r="V9" s="1">
-        <v>13.763053</v>
+        <v>13.763052999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>957.337000</v>
+        <v>957.33699999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.623200</v>
+        <v>-89.623199999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>49557.850796</v>
+        <v>49557.850795999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>13.766070</v>
+        <v>13.766069999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.668000</v>
+        <v>964.66800000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.307700</v>
+        <v>-80.307699999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>49568.362509</v>
+        <v>49568.362508999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>13.768990</v>
+        <v>13.768990000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.698000</v>
+        <v>969.69799999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.123700</v>
+        <v>-80.123699999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>49579.179263</v>
+        <v>49579.179262999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.771994</v>
+        <v>13.771993999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.589000</v>
+        <v>977.58900000000006</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.008900</v>
+        <v>-88.008899999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>49589.893382</v>
+        <v>49589.893382000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.774970</v>
+        <v>13.77497</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.858000</v>
+        <v>986.85799999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.146000</v>
+        <v>-103.146</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>49600.552866</v>
+        <v>49600.552865999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>13.777931</v>
+        <v>13.777931000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.345000</v>
+        <v>998.34500000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.882000</v>
+        <v>-124.88200000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>49611.609684</v>
+        <v>49611.609684000003</v>
       </c>
       <c r="AZ9" s="1">
         <v>13.781003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1008.060000</v>
+        <v>1008.06</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.748000</v>
+        <v>-143.74799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>49622.268248</v>
@@ -2445,13 +2861,13 @@
         <v>13.783963</v>
       </c>
       <c r="BF9" s="1">
-        <v>1053.770000</v>
+        <v>1053.77</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.963000</v>
+        <v>-228.96299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>49633.426216</v>
@@ -2460,467 +2876,467 @@
         <v>13.787063</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.580000</v>
+        <v>1133.58</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.482000</v>
+        <v>-365.48200000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>49644.024233</v>
+        <v>49644.024232999996</v>
       </c>
       <c r="BO9" s="1">
-        <v>13.790007</v>
+        <v>13.790006999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1265.250000</v>
+        <v>1265.25</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-576.742000</v>
+        <v>-576.74199999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>49654.914892</v>
+        <v>49654.914892000001</v>
       </c>
       <c r="BT9" s="1">
         <v>13.793032</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV9" s="1">
-        <v>-802.843000</v>
+        <v>-802.84299999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>49665.726684</v>
+        <v>49665.726684000001</v>
       </c>
       <c r="BY9" s="1">
         <v>13.796035</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.370000</v>
+        <v>1575.37</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1038.940000</v>
+        <v>-1038.94</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>49677.965468</v>
+        <v>49677.965468000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.799435</v>
+        <v>13.799435000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1986.160000</v>
+        <v>1986.16</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1592.670000</v>
+        <v>-1592.67</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>49506.053777</v>
+        <v>49506.053777000001</v>
       </c>
       <c r="B10" s="1">
-        <v>13.751682</v>
+        <v>13.751682000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>906.281000</v>
+        <v>906.28099999999995</v>
       </c>
       <c r="D10" s="1">
-        <v>-193.300000</v>
+        <v>-193.3</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>49516.097106</v>
+        <v>49516.097106000001</v>
       </c>
       <c r="G10" s="1">
-        <v>13.754471</v>
+        <v>13.754471000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>922.830000</v>
+        <v>922.83</v>
       </c>
       <c r="I10" s="1">
-        <v>-164.175000</v>
+        <v>-164.17500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>49526.570100</v>
+        <v>49526.570099999997</v>
       </c>
       <c r="L10" s="1">
-        <v>13.757381</v>
+        <v>13.757381000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>944.587000</v>
+        <v>944.58699999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.002000</v>
+        <v>-118.002</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>49536.835335</v>
+        <v>49536.835335000003</v>
       </c>
       <c r="Q10" s="1">
         <v>13.760232</v>
       </c>
       <c r="R10" s="1">
-        <v>951.040000</v>
+        <v>951.04</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.029000</v>
+        <v>-103.029</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>49547.364406</v>
+        <v>49547.364406000001</v>
       </c>
       <c r="V10" s="1">
         <v>13.763157</v>
       </c>
       <c r="W10" s="1">
-        <v>957.594000</v>
+        <v>957.59400000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.483200</v>
+        <v>-89.483199999999997</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>49558.190556</v>
+        <v>49558.190556000001</v>
       </c>
       <c r="AA10" s="1">
         <v>13.766164</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.660000</v>
+        <v>964.66</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.335500</v>
+        <v>-80.335499999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>49568.702766</v>
+        <v>49568.702766000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>13.769084</v>
+        <v>13.769083999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.584000</v>
+        <v>969.58399999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.068300</v>
+        <v>-80.068299999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>49579.527950</v>
+        <v>49579.527950000003</v>
       </c>
       <c r="AK10" s="1">
         <v>13.772091</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.587000</v>
+        <v>977.58699999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.007100</v>
+        <v>-88.007099999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>49590.320896</v>
+        <v>49590.320895999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>13.775089</v>
+        <v>13.775088999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.875000</v>
+        <v>986.875</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.172000</v>
+        <v>-103.172</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>49600.982434</v>
+        <v>49600.982433999998</v>
       </c>
       <c r="AU10" s="1">
         <v>13.778051</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.342000</v>
+        <v>998.34199999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.875000</v>
+        <v>-124.875</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>49611.908803</v>
+        <v>49611.908802999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>13.781086</v>
       </c>
       <c r="BA10" s="1">
-        <v>1008.070000</v>
+        <v>1008.07</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.759000</v>
+        <v>-143.75899999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>49622.629797</v>
+        <v>49622.629797000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.784064</v>
+        <v>13.784064000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.740000</v>
+        <v>1053.74</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.953000</v>
+        <v>-228.953</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>49633.798743</v>
+        <v>49633.798742999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>13.787166</v>
+        <v>13.787165999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1133.600000</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.499000</v>
+        <v>-365.49900000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>49644.421566</v>
+        <v>49644.421565999997</v>
       </c>
       <c r="BO10" s="1">
         <v>13.790117</v>
       </c>
       <c r="BP10" s="1">
-        <v>1265.260000</v>
+        <v>1265.26</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-576.768000</v>
+        <v>-576.76800000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>49655.350874</v>
+        <v>49655.350874000003</v>
       </c>
       <c r="BT10" s="1">
         <v>13.793153</v>
       </c>
       <c r="BU10" s="1">
-        <v>1413.410000</v>
+        <v>1413.41</v>
       </c>
       <c r="BV10" s="1">
-        <v>-802.764000</v>
+        <v>-802.76400000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>49666.175596</v>
+        <v>49666.175596000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.796160</v>
+        <v>13.79616</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.450000</v>
+        <v>1575.45</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1039.030000</v>
+        <v>-1039.03</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>49678.505117</v>
+        <v>49678.505117000001</v>
       </c>
       <c r="CD10" s="1">
         <v>13.799585</v>
       </c>
       <c r="CE10" s="1">
-        <v>1986.620000</v>
+        <v>1986.62</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1590.310000</v>
+        <v>-1590.31</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>49506.700367</v>
+        <v>49506.700366999998</v>
       </c>
       <c r="B11" s="1">
         <v>13.751861</v>
       </c>
       <c r="C11" s="1">
-        <v>906.268000</v>
+        <v>906.26800000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-193.229000</v>
+        <v>-193.22900000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>49516.741409</v>
+        <v>49516.741409000002</v>
       </c>
       <c r="G11" s="1">
-        <v>13.754650</v>
+        <v>13.75465</v>
       </c>
       <c r="H11" s="1">
-        <v>922.631000</v>
+        <v>922.63099999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.265000</v>
+        <v>-164.26499999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>49526.952522</v>
       </c>
       <c r="L11" s="1">
-        <v>13.757487</v>
+        <v>13.757486999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>944.547000</v>
+        <v>944.54700000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.063000</v>
+        <v>-118.063</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>49537.186470</v>
+        <v>49537.186470000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.760330</v>
+        <v>13.76033</v>
       </c>
       <c r="R11" s="1">
-        <v>951.038000</v>
+        <v>951.03800000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.989000</v>
+        <v>-102.989</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>49547.707609</v>
+        <v>49547.707608999997</v>
       </c>
       <c r="V11" s="1">
         <v>13.763252</v>
       </c>
       <c r="W11" s="1">
-        <v>957.432000</v>
+        <v>957.43200000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.522500</v>
+        <v>-89.522499999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>49558.538250</v>
+        <v>49558.538249999998</v>
       </c>
       <c r="AA11" s="1">
         <v>13.766261</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.620000</v>
+        <v>964.62</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.405200</v>
+        <v>-80.405199999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>49569.047985</v>
+        <v>49569.047984999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.769180</v>
+        <v>13.76918</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.692000</v>
+        <v>969.69200000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.119900</v>
+        <v>-80.119900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>49579.945119</v>
+        <v>49579.945119000004</v>
       </c>
       <c r="AK11" s="1">
         <v>13.772207</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.607000</v>
+        <v>977.60699999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.040600</v>
+        <v>-88.040599999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>49590.612080</v>
+        <v>49590.612079999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>13.775170</v>
+        <v>13.775169999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.868000</v>
+        <v>986.86800000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.162000</v>
+        <v>-103.16200000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>49601.280993</v>
@@ -2929,225 +3345,225 @@
         <v>13.778134</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.362000</v>
+        <v>998.36199999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.888000</v>
+        <v>-124.88800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>49612.268867</v>
+        <v>49612.268866999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>13.781186</v>
       </c>
       <c r="BA11" s="1">
-        <v>1008.070000</v>
+        <v>1008.07</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.744000</v>
+        <v>-143.744</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>49622.991381</v>
       </c>
       <c r="BE11" s="1">
-        <v>13.784164</v>
+        <v>13.784164000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1053.750000</v>
+        <v>1053.75</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.952000</v>
+        <v>-228.952</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>49634.174686</v>
+        <v>49634.174685999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.787271</v>
       </c>
       <c r="BK11" s="1">
-        <v>1133.550000</v>
+        <v>1133.55</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.478000</v>
+        <v>-365.47800000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>49644.842169</v>
+        <v>49644.842169000003</v>
       </c>
       <c r="BO11" s="1">
         <v>13.790234</v>
       </c>
       <c r="BP11" s="1">
-        <v>1265.240000</v>
+        <v>1265.24</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-576.753000</v>
+        <v>-576.75300000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>49655.775978</v>
+        <v>49655.775977999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>13.793271</v>
+        <v>13.793271000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1413.440000</v>
+        <v>1413.44</v>
       </c>
       <c r="BV11" s="1">
-        <v>-802.775000</v>
+        <v>-802.77499999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>49666.632875</v>
+        <v>49666.632875000003</v>
       </c>
       <c r="BY11" s="1">
         <v>13.796287</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.380000</v>
+        <v>1575.38</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1039.080000</v>
+        <v>-1039.08</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>49679.045788</v>
+        <v>49679.045788000003</v>
       </c>
       <c r="CD11" s="1">
         <v>13.799735</v>
       </c>
       <c r="CE11" s="1">
-        <v>1985.500000</v>
+        <v>1985.5</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1591.900000</v>
+        <v>-1591.9</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>49507.075839</v>
+        <v>49507.075838999997</v>
       </c>
       <c r="B12" s="1">
-        <v>13.751966</v>
+        <v>13.751965999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>906.433000</v>
+        <v>906.43299999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-193.259000</v>
+        <v>-193.25899999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>49517.129745</v>
+        <v>49517.129744999998</v>
       </c>
       <c r="G12" s="1">
-        <v>13.754758</v>
+        <v>13.754758000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>922.299000</v>
+        <v>922.29899999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.817000</v>
+        <v>-163.81700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>49527.297763</v>
+        <v>49527.297763000002</v>
       </c>
       <c r="L12" s="1">
         <v>13.757583</v>
       </c>
       <c r="M12" s="1">
-        <v>944.648000</v>
+        <v>944.64800000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.136000</v>
+        <v>-118.136</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>49537.537173</v>
+        <v>49537.537172999997</v>
       </c>
       <c r="Q12" s="1">
         <v>13.760427</v>
       </c>
       <c r="R12" s="1">
-        <v>951.062000</v>
+        <v>951.06200000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.003000</v>
+        <v>-103.003</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>49548.053817</v>
       </c>
       <c r="V12" s="1">
-        <v>13.763348</v>
+        <v>13.763348000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>957.421000</v>
+        <v>957.42100000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.575900</v>
+        <v>-89.575900000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>49558.956873</v>
+        <v>49558.956873000003</v>
       </c>
       <c r="AA12" s="1">
         <v>13.766377</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.692000</v>
+        <v>964.69200000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.386000</v>
+        <v>-80.385999999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>49569.741388</v>
+        <v>49569.741388000002</v>
       </c>
       <c r="AF12" s="1">
         <v>13.769373</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.633000</v>
+        <v>969.63300000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.052900</v>
+        <v>-80.052899999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>49580.238221</v>
@@ -3156,118 +3572,118 @@
         <v>13.772288</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.606000</v>
+        <v>977.60599999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.027300</v>
+        <v>-88.027299999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>49590.974127</v>
+        <v>49590.974127000001</v>
       </c>
       <c r="AP12" s="1">
         <v>13.775271</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.877000</v>
+        <v>986.87699999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.177000</v>
+        <v>-103.17700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>49601.648529</v>
+        <v>49601.648528999998</v>
       </c>
       <c r="AU12" s="1">
         <v>13.778236</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.346000</v>
+        <v>998.346</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.887000</v>
+        <v>-124.887</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>49612.629460</v>
+        <v>49612.629459999996</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.781286</v>
       </c>
       <c r="BA12" s="1">
-        <v>1008.060000</v>
+        <v>1008.06</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.729000</v>
+        <v>-143.72900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>49623.711574</v>
+        <v>49623.711574000001</v>
       </c>
       <c r="BE12" s="1">
         <v>13.784364</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.760000</v>
+        <v>1053.76</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.949000</v>
+        <v>-228.94900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>49634.945503</v>
+        <v>49634.945503000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>13.787485</v>
       </c>
       <c r="BK12" s="1">
-        <v>1133.560000</v>
+        <v>1133.56</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.519000</v>
+        <v>-365.51900000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>49645.240423</v>
+        <v>49645.240423000003</v>
       </c>
       <c r="BO12" s="1">
         <v>13.790345</v>
       </c>
       <c r="BP12" s="1">
-        <v>1265.230000</v>
+        <v>1265.23</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-576.732000</v>
+        <v>-576.73199999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>49656.189610</v>
+        <v>49656.189610000001</v>
       </c>
       <c r="BT12" s="1">
         <v>13.793386</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.400000</v>
+        <v>1413.4</v>
       </c>
       <c r="BV12" s="1">
-        <v>-802.735000</v>
+        <v>-802.73500000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>49667.081756</v>
@@ -3276,45 +3692,45 @@
         <v>13.796412</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.370000</v>
+        <v>1575.37</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1039.010000</v>
+        <v>-1039.01</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>49679.898875</v>
+        <v>49679.898874999999</v>
       </c>
       <c r="CD12" s="1">
         <v>13.799972</v>
       </c>
       <c r="CE12" s="1">
-        <v>1985.870000</v>
+        <v>1985.87</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1590.630000</v>
+        <v>-1590.63</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>49507.420069</v>
       </c>
       <c r="B13" s="1">
-        <v>13.752061</v>
+        <v>13.752060999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>906.223000</v>
+        <v>906.22299999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-193.382000</v>
+        <v>-193.38200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>49517.475457</v>
@@ -3323,43 +3739,43 @@
         <v>13.754854</v>
       </c>
       <c r="H13" s="1">
-        <v>922.721000</v>
+        <v>922.721</v>
       </c>
       <c r="I13" s="1">
-        <v>-164.168000</v>
+        <v>-164.16800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>49527.643976</v>
+        <v>49527.643975999999</v>
       </c>
       <c r="L13" s="1">
         <v>13.757679</v>
       </c>
       <c r="M13" s="1">
-        <v>944.580000</v>
+        <v>944.58</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.976000</v>
+        <v>-117.976</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>49537.962750</v>
+        <v>49537.962749999999</v>
       </c>
       <c r="Q13" s="1">
         <v>13.760545</v>
       </c>
       <c r="R13" s="1">
-        <v>951.110000</v>
+        <v>951.11</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.994000</v>
+        <v>-102.994</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>49548.467481</v>
@@ -3368,88 +3784,88 @@
         <v>13.763463</v>
       </c>
       <c r="W13" s="1">
-        <v>957.420000</v>
+        <v>957.42</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.552500</v>
+        <v>-89.552499999999995</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>49559.236122</v>
+        <v>49559.236122000002</v>
       </c>
       <c r="AA13" s="1">
         <v>13.766454</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.664000</v>
+        <v>964.66399999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.400400</v>
+        <v>-80.400400000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>49570.086107</v>
+        <v>49570.086107000003</v>
       </c>
       <c r="AF13" s="1">
         <v>13.769468</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.573000</v>
+        <v>969.57299999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.074500</v>
+        <v>-80.0745</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>49580.585917</v>
+        <v>49580.585916999997</v>
       </c>
       <c r="AK13" s="1">
         <v>13.772385</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.611000</v>
+        <v>977.61099999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.040600</v>
+        <v>-88.040599999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>49591.335216</v>
+        <v>49591.335215999999</v>
       </c>
       <c r="AP13" s="1">
         <v>13.775371</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.855000</v>
+        <v>986.85500000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.164000</v>
+        <v>-103.164</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>49602.008625</v>
+        <v>49602.008625000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>13.778336</v>
+        <v>13.778335999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.364000</v>
+        <v>998.36400000000003</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.885000</v>
+        <v>-124.88500000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>49613.346178</v>
@@ -3458,512 +3874,512 @@
         <v>13.781485</v>
       </c>
       <c r="BA13" s="1">
-        <v>1008.070000</v>
+        <v>1008.07</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.738000</v>
+        <v>-143.738</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>49624.074180</v>
+        <v>49624.074180000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>13.784465</v>
+        <v>13.784465000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.770000</v>
+        <v>1053.77</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.950000</v>
+        <v>-228.95</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>49635.319446</v>
+        <v>49635.319446000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>13.787589</v>
+        <v>13.787589000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1133.550000</v>
+        <v>1133.55</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.469000</v>
+        <v>-365.46899999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>49645.663047</v>
+        <v>49645.663047000002</v>
       </c>
       <c r="BO13" s="1">
         <v>13.790462</v>
       </c>
       <c r="BP13" s="1">
-        <v>1265.240000</v>
+        <v>1265.24</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-576.771000</v>
+        <v>-576.77099999999996</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>49656.936088</v>
+        <v>49656.936088000002</v>
       </c>
       <c r="BT13" s="1">
         <v>13.793593</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.330000</v>
+        <v>1413.33</v>
       </c>
       <c r="BV13" s="1">
-        <v>-802.663000</v>
+        <v>-802.66300000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>49667.866425</v>
       </c>
       <c r="BY13" s="1">
-        <v>13.796630</v>
+        <v>13.79663</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.390000</v>
+        <v>1575.39</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1038.940000</v>
+        <v>-1038.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>49680.124553</v>
+        <v>49680.124553000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>13.800035</v>
+        <v>13.800034999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1985.900000</v>
+        <v>1985.9</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1590.400000</v>
+        <v>-1590.4</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>49507.762337</v>
       </c>
       <c r="B14" s="1">
-        <v>13.752156</v>
+        <v>13.752155999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>906.290000</v>
+        <v>906.29</v>
       </c>
       <c r="D14" s="1">
-        <v>-193.101000</v>
+        <v>-193.101</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>49517.820178</v>
+        <v>49517.820178000002</v>
       </c>
       <c r="G14" s="1">
-        <v>13.754950</v>
+        <v>13.754949999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>922.764000</v>
+        <v>922.76400000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-164.257000</v>
+        <v>-164.25700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>49528.056610</v>
+        <v>49528.05661</v>
       </c>
       <c r="L14" s="1">
-        <v>13.757794</v>
+        <v>13.757794000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>944.530000</v>
+        <v>944.53</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.108000</v>
+        <v>-118.108</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>49538.252870</v>
+        <v>49538.252869999997</v>
       </c>
       <c r="Q14" s="1">
         <v>13.760626</v>
       </c>
       <c r="R14" s="1">
-        <v>951.128000</v>
+        <v>951.12800000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.021000</v>
+        <v>-103.021</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>49548.762632</v>
+        <v>49548.762631999998</v>
       </c>
       <c r="V14" s="1">
-        <v>13.763545</v>
+        <v>13.763545000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>957.430000</v>
+        <v>957.43</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.631700</v>
+        <v>-89.631699999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>49559.586825</v>
+        <v>49559.586824999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.766552</v>
+        <v>13.766552000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.649000</v>
+        <v>964.649</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.268300</v>
+        <v>-80.268299999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>49570.432811</v>
+        <v>49570.432810999999</v>
       </c>
       <c r="AF14" s="1">
         <v>13.769565</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.655000</v>
+        <v>969.65499999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.065300</v>
+        <v>-80.065299999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>49580.936131</v>
+        <v>49580.936131000002</v>
       </c>
       <c r="AK14" s="1">
         <v>13.772482</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.601000</v>
+        <v>977.601</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.028300</v>
+        <v>-88.028300000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>49592.061358</v>
+        <v>49592.061357999999</v>
       </c>
       <c r="AP14" s="1">
         <v>13.775573</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.867000</v>
+        <v>986.86699999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.158000</v>
+        <v>-103.158</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>49602.737247</v>
+        <v>49602.737246999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.778538</v>
+        <v>13.778537999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.354000</v>
+        <v>998.35400000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.891000</v>
+        <v>-124.89100000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>49613.705281</v>
+        <v>49613.705281000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>13.781585</v>
       </c>
       <c r="BA14" s="1">
-        <v>1008.060000</v>
+        <v>1008.06</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.718000</v>
+        <v>-143.71799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>49624.435267</v>
+        <v>49624.435267000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>13.784565</v>
+        <v>13.784565000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.770000</v>
+        <v>1053.77</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.954000</v>
+        <v>-228.95400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>49635.693924</v>
+        <v>49635.693923999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.787693</v>
+        <v>13.787693000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1133.560000</v>
+        <v>1133.56</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.454000</v>
+        <v>-365.45400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>49646.366865</v>
+        <v>49646.366865000004</v>
       </c>
       <c r="BO14" s="1">
-        <v>13.790657</v>
+        <v>13.790656999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1265.230000</v>
+        <v>1265.23</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-576.744000</v>
+        <v>-576.74400000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>49657.045248</v>
+        <v>49657.045248000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>13.793624</v>
+        <v>13.793623999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.340000</v>
+        <v>1413.34</v>
       </c>
       <c r="BV14" s="1">
-        <v>-802.708000</v>
+        <v>-802.70799999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>49667.987946</v>
+        <v>49667.987946000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>13.796663</v>
+        <v>13.796663000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.450000</v>
+        <v>1575.45</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1038.930000</v>
+        <v>-1038.93</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>49680.644392</v>
+        <v>49680.644392000002</v>
       </c>
       <c r="CD14" s="1">
         <v>13.800179</v>
       </c>
       <c r="CE14" s="1">
-        <v>1985.230000</v>
+        <v>1985.23</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1591.970000</v>
+        <v>-1591.97</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>49508.178977</v>
+        <v>49508.178977000003</v>
       </c>
       <c r="B15" s="1">
         <v>13.752272</v>
       </c>
       <c r="C15" s="1">
-        <v>906.242000</v>
+        <v>906.24199999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-193.265000</v>
+        <v>-193.26499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>49518.251702</v>
+        <v>49518.251702000001</v>
       </c>
       <c r="G15" s="1">
-        <v>13.755070</v>
+        <v>13.75507</v>
       </c>
       <c r="H15" s="1">
-        <v>922.831000</v>
+        <v>922.83100000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-163.841000</v>
+        <v>-163.84100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>49528.353245</v>
+        <v>49528.353244999998</v>
       </c>
       <c r="L15" s="1">
         <v>13.757876</v>
       </c>
       <c r="M15" s="1">
-        <v>944.632000</v>
+        <v>944.63199999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.938000</v>
+        <v>-117.938</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>49538.600825</v>
+        <v>49538.600825000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.760722</v>
+        <v>13.760721999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>951.086000</v>
+        <v>951.08600000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.025000</v>
+        <v>-103.02500000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>49549.107346</v>
+        <v>49549.107345999997</v>
       </c>
       <c r="V15" s="1">
         <v>13.763641</v>
       </c>
       <c r="W15" s="1">
-        <v>957.443000</v>
+        <v>957.44299999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.561800</v>
+        <v>-89.561800000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>49559.933993</v>
+        <v>49559.933992999999</v>
       </c>
       <c r="AA15" s="1">
         <v>13.766648</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.658000</v>
+        <v>964.65800000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.359500</v>
+        <v>-80.359499999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>49571.115801</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.769754</v>
+        <v>13.769754000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.627000</v>
+        <v>969.62699999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.103700</v>
+        <v>-80.103700000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>49581.632476</v>
+        <v>49581.632475999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>13.772676</v>
+        <v>13.772676000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.605000</v>
+        <v>977.60500000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.021000</v>
+        <v>-88.021000000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>49592.437357</v>
+        <v>49592.437357000003</v>
       </c>
       <c r="AP15" s="1">
         <v>13.775677</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.864000</v>
+        <v>986.86400000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.152000</v>
+        <v>-103.152</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>49603.100320</v>
+        <v>49603.100319999998</v>
       </c>
       <c r="AU15" s="1">
         <v>13.778639</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.347000</v>
+        <v>998.34699999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.880000</v>
+        <v>-124.88</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>49614.065874</v>
@@ -3972,527 +4388,527 @@
         <v>13.781685</v>
       </c>
       <c r="BA15" s="1">
-        <v>1008.060000</v>
+        <v>1008.06</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.738000</v>
+        <v>-143.738</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>49625.110785</v>
+        <v>49625.110784999997</v>
       </c>
       <c r="BE15" s="1">
         <v>13.784753</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.750000</v>
+        <v>1053.75</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.957000</v>
+        <v>-228.95699999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>49636.143795</v>
+        <v>49636.143795000004</v>
       </c>
       <c r="BJ15" s="1">
         <v>13.787818</v>
       </c>
       <c r="BK15" s="1">
-        <v>1133.600000</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.484000</v>
+        <v>-365.48399999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>49646.477980</v>
+        <v>49646.477980000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>13.790688</v>
+        <v>13.790687999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-576.764000</v>
+        <v>-576.76400000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>49657.485159</v>
+        <v>49657.485159000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.793746</v>
+        <v>13.793746000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.360000</v>
+        <v>1413.36</v>
       </c>
       <c r="BV15" s="1">
-        <v>-802.598000</v>
+        <v>-802.59799999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>49668.429428</v>
+        <v>49668.429428000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.796786</v>
+        <v>13.796786000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.310000</v>
+        <v>1575.31</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1039.010000</v>
+        <v>-1039.01</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>49681.163672</v>
+        <v>49681.163672000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>13.800323</v>
+        <v>13.800323000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1985.480000</v>
+        <v>1985.48</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1591.100000</v>
+        <v>-1591.1</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>49508.459181</v>
+        <v>49508.459180999998</v>
       </c>
       <c r="B16" s="1">
-        <v>13.752350</v>
+        <v>13.75235</v>
       </c>
       <c r="C16" s="1">
-        <v>906.347000</v>
+        <v>906.34699999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-193.443000</v>
+        <v>-193.44300000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>49518.507667</v>
+        <v>49518.507666999998</v>
       </c>
       <c r="G16" s="1">
         <v>13.755141</v>
       </c>
       <c r="H16" s="1">
-        <v>922.846000</v>
+        <v>922.846</v>
       </c>
       <c r="I16" s="1">
-        <v>-164.110000</v>
+        <v>-164.11</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>49528.695457</v>
+        <v>49528.695457000002</v>
       </c>
       <c r="L16" s="1">
         <v>13.757971</v>
       </c>
       <c r="M16" s="1">
-        <v>944.561000</v>
+        <v>944.56100000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.061000</v>
+        <v>-118.06100000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>49538.950740</v>
+        <v>49538.95074</v>
       </c>
       <c r="Q16" s="1">
-        <v>13.760820</v>
+        <v>13.760820000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>951.023000</v>
+        <v>951.02300000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.999000</v>
+        <v>-102.999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>49549.451543</v>
+        <v>49549.451543000003</v>
       </c>
       <c r="V16" s="1">
-        <v>13.763737</v>
+        <v>13.763737000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>957.478000</v>
+        <v>957.47799999999995</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.589800</v>
+        <v>-89.589799999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>49560.632360</v>
+        <v>49560.632360000003</v>
       </c>
       <c r="AA16" s="1">
         <v>13.766842</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.639000</v>
+        <v>964.63900000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.326300</v>
+        <v>-80.326300000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>49571.467001</v>
+        <v>49571.467000999997</v>
       </c>
       <c r="AF16" s="1">
         <v>13.769852</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.623000</v>
+        <v>969.62300000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.071300</v>
+        <v>-80.071299999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>49581.983179</v>
+        <v>49581.983179000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.772773</v>
+        <v>13.772773000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.621000</v>
+        <v>977.62099999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.021600</v>
+        <v>-88.021600000000007</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>49592.798941</v>
+        <v>49592.798941000001</v>
       </c>
       <c r="AP16" s="1">
         <v>13.775777</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.863000</v>
+        <v>986.86300000000006</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.173000</v>
+        <v>-103.173</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>49603.779374</v>
+        <v>49603.779373999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>13.778828</v>
+        <v>13.778828000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.361000</v>
+        <v>998.36099999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.874000</v>
+        <v>-124.874</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>49614.726081</v>
+        <v>49614.726081000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.781868</v>
+        <v>13.781867999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1008.060000</v>
+        <v>1008.06</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.732000</v>
+        <v>-143.732</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>49625.543052</v>
+        <v>49625.543052000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>13.784873</v>
+        <v>13.784872999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.780000</v>
+        <v>1053.78</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.966000</v>
+        <v>-228.96600000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>49636.472184</v>
+        <v>49636.472183999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>13.787909</v>
+        <v>13.787909000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1133.570000</v>
+        <v>1133.57</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.505000</v>
+        <v>-365.505</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>49646.904006</v>
+        <v>49646.904005999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>13.790807</v>
+        <v>13.790806999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1265.220000</v>
+        <v>1265.22</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-576.773000</v>
+        <v>-576.77300000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>49657.895848</v>
       </c>
       <c r="BT16" s="1">
-        <v>13.793860</v>
+        <v>13.79386</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.380000</v>
+        <v>1413.38</v>
       </c>
       <c r="BV16" s="1">
-        <v>-802.624000</v>
+        <v>-802.62400000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>49668.982425</v>
+        <v>49668.982425000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.796940</v>
+        <v>13.796939999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.360000</v>
+        <v>1575.36</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1039.050000</v>
+        <v>-1039.05</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>49681.714760</v>
+        <v>49681.714760000003</v>
       </c>
       <c r="CD16" s="1">
         <v>13.800476</v>
       </c>
       <c r="CE16" s="1">
-        <v>1985.790000</v>
+        <v>1985.79</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1590.360000</v>
+        <v>-1590.36</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>49508.802417</v>
+        <v>49508.802416999999</v>
       </c>
       <c r="B17" s="1">
         <v>13.752445</v>
       </c>
       <c r="C17" s="1">
-        <v>906.213000</v>
+        <v>906.21299999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-193.340000</v>
+        <v>-193.34</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>49518.851857</v>
+        <v>49518.851857000001</v>
       </c>
       <c r="G17" s="1">
-        <v>13.755237</v>
+        <v>13.755236999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>922.972000</v>
+        <v>922.97199999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-164.069000</v>
+        <v>-164.06899999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>49529.045137</v>
+        <v>49529.045137000001</v>
       </c>
       <c r="L17" s="1">
         <v>13.758068</v>
       </c>
       <c r="M17" s="1">
-        <v>944.533000</v>
+        <v>944.53300000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.045000</v>
+        <v>-118.045</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>49539.644186</v>
+        <v>49539.644185999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.761012</v>
+        <v>13.761011999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>951.067000</v>
+        <v>951.06700000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.986000</v>
+        <v>-102.986</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>49550.138006</v>
+        <v>49550.138006000001</v>
       </c>
       <c r="V17" s="1">
-        <v>13.763927</v>
+        <v>13.763927000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>957.492000</v>
+        <v>957.49199999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.654700</v>
+        <v>-89.654700000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>49560.980055</v>
       </c>
       <c r="AA17" s="1">
-        <v>13.766939</v>
+        <v>13.766939000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.649000</v>
+        <v>964.649</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.284900</v>
+        <v>-80.284899999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>49571.809737</v>
+        <v>49571.809737000003</v>
       </c>
       <c r="AF17" s="1">
         <v>13.769947</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.648000</v>
+        <v>969.64800000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.114900</v>
+        <v>-80.114900000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>49582.331866</v>
       </c>
       <c r="AK17" s="1">
-        <v>13.772870</v>
+        <v>13.772869999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.614000</v>
+        <v>977.61400000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.021500</v>
+        <v>-88.021500000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>49593.468044</v>
+        <v>49593.468044000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.775963</v>
+        <v>13.775963000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.857000</v>
+        <v>986.85699999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.181000</v>
+        <v>-103.181</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>49604.194796</v>
+        <v>49604.194796000003</v>
       </c>
       <c r="AU17" s="1">
         <v>13.778943</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.353000</v>
+        <v>998.35299999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.886000</v>
+        <v>-124.886</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>49615.175423</v>
+        <v>49615.175423000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>13.781993</v>
       </c>
       <c r="BA17" s="1">
-        <v>1008.050000</v>
+        <v>1008.05</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.730000</v>
+        <v>-143.72999999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>49625.905413</v>
@@ -4501,180 +4917,180 @@
         <v>13.784974</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.760000</v>
+        <v>1053.76</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.962000</v>
+        <v>-228.96199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>49636.847650</v>
+        <v>49636.847650000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.788013</v>
+        <v>13.788012999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.560000</v>
+        <v>1133.56</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.504000</v>
+        <v>-365.50400000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>49647.299829</v>
+        <v>49647.299829000003</v>
       </c>
       <c r="BO17" s="1">
         <v>13.790917</v>
       </c>
       <c r="BP17" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.726000</v>
+        <v>-576.726</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>49658.325878</v>
+        <v>49658.325878000003</v>
       </c>
       <c r="BT17" s="1">
         <v>13.793979</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.340000</v>
+        <v>1413.34</v>
       </c>
       <c r="BV17" s="1">
-        <v>-802.547000</v>
+        <v>-802.54700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>49669.695671</v>
+        <v>49669.695671000001</v>
       </c>
       <c r="BY17" s="1">
         <v>13.797138</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.500000</v>
+        <v>1575.5</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1039.040000</v>
+        <v>-1039.04</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>49682.242968</v>
+        <v>49682.242967999999</v>
       </c>
       <c r="CD17" s="1">
         <v>13.800623</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.140000</v>
+        <v>1985.14</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1591.960000</v>
+        <v>-1591.96</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>49509.142669</v>
+        <v>49509.142669000001</v>
       </c>
       <c r="B18" s="1">
-        <v>13.752540</v>
+        <v>13.75254</v>
       </c>
       <c r="C18" s="1">
-        <v>906.313000</v>
+        <v>906.31299999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-192.972000</v>
+        <v>-192.97200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>49519.461439</v>
+        <v>49519.461438999999</v>
       </c>
       <c r="G18" s="1">
-        <v>13.755406</v>
+        <v>13.755406000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>922.359000</v>
+        <v>922.35900000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-164.134000</v>
+        <v>-164.13399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>49529.739040</v>
+        <v>49529.73904</v>
       </c>
       <c r="L18" s="1">
-        <v>13.758261</v>
+        <v>13.758260999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>944.669000</v>
+        <v>944.66899999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.092000</v>
+        <v>-118.092</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>49539.992836</v>
+        <v>49539.992835999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.761109</v>
+        <v>13.761108999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>951.090000</v>
+        <v>951.09</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.981000</v>
+        <v>-102.98099999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>49550.481269</v>
+        <v>49550.481269000004</v>
       </c>
       <c r="V18" s="1">
         <v>13.764023</v>
       </c>
       <c r="W18" s="1">
-        <v>957.455000</v>
+        <v>957.45500000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.610700</v>
+        <v>-89.610699999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>49561.327786</v>
+        <v>49561.327786000002</v>
       </c>
       <c r="AA18" s="1">
         <v>13.767035</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.657000</v>
+        <v>964.65700000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.330000</v>
+        <v>-80.33</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>49572.450568</v>
@@ -4683,103 +5099,103 @@
         <v>13.770125</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.616000</v>
+        <v>969.61599999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.086300</v>
+        <v>-80.086299999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>49582.988042</v>
+        <v>49582.988041999997</v>
       </c>
       <c r="AK18" s="1">
         <v>13.773052</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.597000</v>
+        <v>977.59699999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.054400</v>
+        <v>-88.054400000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>49593.877739</v>
+        <v>49593.877739000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.776077</v>
+        <v>13.776077000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.850000</v>
+        <v>986.85</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.177000</v>
+        <v>-103.17700000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>49604.562030</v>
+        <v>49604.562030000001</v>
       </c>
       <c r="AU18" s="1">
         <v>13.779045</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.360000</v>
+        <v>998.36</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.861000</v>
+        <v>-124.861</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>49615.533039</v>
+        <v>49615.533039000002</v>
       </c>
       <c r="AZ18" s="1">
         <v>13.782093</v>
       </c>
       <c r="BA18" s="1">
-        <v>1008.070000</v>
+        <v>1008.07</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.754000</v>
+        <v>-143.75399999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>49626.267456</v>
+        <v>49626.267456000001</v>
       </c>
       <c r="BE18" s="1">
         <v>13.785074</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.750000</v>
+        <v>1053.75</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.974000</v>
+        <v>-228.97399999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>49637.273186</v>
+        <v>49637.273185999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>13.788131</v>
       </c>
       <c r="BK18" s="1">
-        <v>1133.580000</v>
+        <v>1133.58</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.490000</v>
+        <v>-365.49</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>49647.722405</v>
@@ -4788,664 +5204,664 @@
         <v>13.791034</v>
       </c>
       <c r="BP18" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-576.744000</v>
+        <v>-576.74400000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>49658.754421</v>
+        <v>49658.754420999998</v>
       </c>
       <c r="BT18" s="1">
         <v>13.794098</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.250000</v>
+        <v>1413.25</v>
       </c>
       <c r="BV18" s="1">
-        <v>-802.593000</v>
+        <v>-802.59299999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>49670.129703</v>
+        <v>49670.129702999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>13.797258</v>
+        <v>13.797257999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.400000</v>
+        <v>1575.4</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1039.060000</v>
+        <v>-1039.06</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>49682.759340</v>
+        <v>49682.759339999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.800766</v>
+        <v>13.800765999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1985.340000</v>
+        <v>1985.34</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1590.920000</v>
+        <v>-1590.92</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>49509.826164</v>
+        <v>49509.826163999998</v>
       </c>
       <c r="B19" s="1">
         <v>13.752729</v>
       </c>
       <c r="C19" s="1">
-        <v>906.289000</v>
+        <v>906.28899999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-193.329000</v>
+        <v>-193.32900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>49519.890478</v>
+        <v>49519.890478000001</v>
       </c>
       <c r="G19" s="1">
         <v>13.755525</v>
       </c>
       <c r="H19" s="1">
-        <v>923.023000</v>
+        <v>923.02300000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.878000</v>
+        <v>-163.87799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>49530.086737</v>
+        <v>49530.086736999998</v>
       </c>
       <c r="L19" s="1">
         <v>13.758357</v>
       </c>
       <c r="M19" s="1">
-        <v>944.494000</v>
+        <v>944.49400000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.979000</v>
+        <v>-117.979</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>49540.344531</v>
+        <v>49540.344531000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>13.761207</v>
+        <v>13.761207000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>951.092000</v>
+        <v>951.09199999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.033000</v>
+        <v>-103.033</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>49550.824004</v>
+        <v>49550.824004000002</v>
       </c>
       <c r="V19" s="1">
         <v>13.764118</v>
       </c>
       <c r="W19" s="1">
-        <v>957.483000</v>
+        <v>957.48299999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.569800</v>
+        <v>-89.569800000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>49561.984964</v>
+        <v>49561.984964000003</v>
       </c>
       <c r="AA19" s="1">
         <v>13.767218</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.617000</v>
+        <v>964.61699999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.274400</v>
+        <v>-80.2744</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>49572.840887</v>
+        <v>49572.840886999998</v>
       </c>
       <c r="AF19" s="1">
         <v>13.770234</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.624000</v>
+        <v>969.62400000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.117300</v>
+        <v>-80.1173</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>49583.378425</v>
+        <v>49583.378425000003</v>
       </c>
       <c r="AK19" s="1">
         <v>13.773161</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.595000</v>
+        <v>977.59500000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.997600</v>
+        <v>-87.997600000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>49594.264128</v>
+        <v>49594.264128000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>13.776184</v>
+        <v>13.776184000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.847000</v>
+        <v>986.84699999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.176000</v>
+        <v>-103.176</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>49604.926094</v>
+        <v>49604.926094000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>13.779146</v>
+        <v>13.779146000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.362000</v>
+        <v>998.36199999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.867000</v>
+        <v>-124.867</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>49615.891646</v>
+        <v>49615.891645999996</v>
       </c>
       <c r="AZ19" s="1">
         <v>13.782192</v>
       </c>
       <c r="BA19" s="1">
-        <v>1008.070000</v>
+        <v>1008.07</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.769000</v>
+        <v>-143.76900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>49626.689089</v>
       </c>
       <c r="BE19" s="1">
-        <v>13.785191</v>
+        <v>13.785190999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.760000</v>
+        <v>1053.76</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.941000</v>
+        <v>-228.941</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>49637.599057</v>
+        <v>49637.599056999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>13.788222</v>
+        <v>13.788221999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.560000</v>
+        <v>1133.56</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.480000</v>
+        <v>-365.48</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>49648.118708</v>
+        <v>49648.118708000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>13.791144</v>
+        <v>13.791143999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1265.210000</v>
+        <v>1265.21</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-576.740000</v>
+        <v>-576.74</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>49659.168113</v>
       </c>
       <c r="BT19" s="1">
-        <v>13.794213</v>
+        <v>13.794212999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.270000</v>
+        <v>1413.27</v>
       </c>
       <c r="BV19" s="1">
-        <v>-802.511000</v>
+        <v>-802.51099999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>49670.552795</v>
+        <v>49670.552795000003</v>
       </c>
       <c r="BY19" s="1">
         <v>13.797376</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.390000</v>
+        <v>1575.39</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1039.060000</v>
+        <v>-1039.06</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>49683.314326</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.800921</v>
+        <v>13.800921000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1985.640000</v>
+        <v>1985.64</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1590.490000</v>
+        <v>-1590.49</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>49510.167401</v>
+        <v>49510.167400999999</v>
       </c>
       <c r="B20" s="1">
         <v>13.752824</v>
       </c>
       <c r="C20" s="1">
-        <v>906.225000</v>
+        <v>906.22500000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-193.172000</v>
+        <v>-193.172</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>49520.231266</v>
+        <v>49520.231266000003</v>
       </c>
       <c r="G20" s="1">
-        <v>13.755620</v>
+        <v>13.75562</v>
       </c>
       <c r="H20" s="1">
-        <v>922.331000</v>
+        <v>922.33100000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-164.274000</v>
+        <v>-164.274</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>49530.430463</v>
+        <v>49530.430462999997</v>
       </c>
       <c r="L20" s="1">
-        <v>13.758453</v>
+        <v>13.758452999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>944.548000</v>
+        <v>944.548</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.000000</v>
+        <v>-118</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>49541.000761</v>
+        <v>49541.000761000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>13.761389</v>
+        <v>13.761388999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>951.077000</v>
+        <v>951.077</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.069000</v>
+        <v>-103.069</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>49551.483651</v>
+        <v>49551.483651000002</v>
       </c>
       <c r="V20" s="1">
         <v>13.764301</v>
       </c>
       <c r="W20" s="1">
-        <v>957.423000</v>
+        <v>957.423</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.552300</v>
+        <v>-89.552300000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>49562.375829</v>
+        <v>49562.375828999997</v>
       </c>
       <c r="AA20" s="1">
         <v>13.767327</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.571000</v>
+        <v>964.57100000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.325200</v>
+        <v>-80.325199999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>49573.185142</v>
+        <v>49573.185142000002</v>
       </c>
       <c r="AF20" s="1">
         <v>13.770329</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.651000</v>
+        <v>969.65099999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.033800</v>
+        <v>-80.033799999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>49583.725134</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.773257</v>
+        <v>13.773256999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.617000</v>
+        <v>977.61699999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.048800</v>
+        <v>-88.0488</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>49594.623227</v>
+        <v>49594.623226999996</v>
       </c>
       <c r="AP20" s="1">
         <v>13.776284</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.872000</v>
+        <v>986.87199999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.161000</v>
+        <v>-103.161</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>49605.345709</v>
+        <v>49605.345709000001</v>
       </c>
       <c r="AU20" s="1">
         <v>13.779263</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.340000</v>
+        <v>998.34</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.875000</v>
+        <v>-124.875</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>49616.319730</v>
+        <v>49616.319730000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>13.782311</v>
       </c>
       <c r="BA20" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.761000</v>
+        <v>-143.761</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>49626.985663</v>
+        <v>49626.985662999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>13.785274</v>
+        <v>13.785273999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1053.770000</v>
+        <v>1053.77</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.951000</v>
+        <v>-228.95099999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>49637.972546</v>
+        <v>49637.972545999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>13.788326</v>
       </c>
       <c r="BK20" s="1">
-        <v>1133.570000</v>
+        <v>1133.57</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.471000</v>
+        <v>-365.471</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>49648.537862</v>
+        <v>49648.537861999997</v>
       </c>
       <c r="BO20" s="1">
         <v>13.791261</v>
       </c>
       <c r="BP20" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-576.739000</v>
+        <v>-576.73900000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>49659.597620</v>
+        <v>49659.59762</v>
       </c>
       <c r="BT20" s="1">
         <v>13.794333</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.200000</v>
+        <v>1413.2</v>
       </c>
       <c r="BV20" s="1">
-        <v>-802.570000</v>
+        <v>-802.57</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>49670.974359</v>
       </c>
       <c r="BY20" s="1">
-        <v>13.797493</v>
+        <v>13.797492999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.420000</v>
+        <v>1575.42</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1039.050000</v>
+        <v>-1039.05</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>49683.845044</v>
+        <v>49683.845044000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.801068</v>
+        <v>13.801068000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1985.130000</v>
+        <v>1985.13</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1592.050000</v>
+        <v>-1592.05</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>49510.509145</v>
+        <v>49510.509145000004</v>
       </c>
       <c r="B21" s="1">
         <v>13.752919</v>
       </c>
       <c r="C21" s="1">
-        <v>906.127000</v>
+        <v>906.12699999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-193.211000</v>
+        <v>-193.21100000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>49520.890413</v>
+        <v>49520.890413000001</v>
       </c>
       <c r="G21" s="1">
         <v>13.755803</v>
       </c>
       <c r="H21" s="1">
-        <v>922.761000</v>
+        <v>922.76099999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.002000</v>
+        <v>-164.00200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>49531.101552</v>
       </c>
       <c r="L21" s="1">
-        <v>13.758639</v>
+        <v>13.758639000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>944.403000</v>
+        <v>944.40300000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.019000</v>
+        <v>-118.01900000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>49541.389568</v>
+        <v>49541.389567999999</v>
       </c>
       <c r="Q21" s="1">
         <v>13.761497</v>
       </c>
       <c r="R21" s="1">
-        <v>951.051000</v>
+        <v>951.05100000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.014000</v>
+        <v>-103.014</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>49551.852216</v>
+        <v>49551.852215999999</v>
       </c>
       <c r="V21" s="1">
         <v>13.764403</v>
       </c>
       <c r="W21" s="1">
-        <v>957.485000</v>
+        <v>957.48500000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.534900</v>
+        <v>-89.534899999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>49562.722996</v>
+        <v>49562.722995999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>13.767423</v>
+        <v>13.767423000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.689000</v>
+        <v>964.68899999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.423200</v>
+        <v>-80.423199999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>49573.527382</v>
@@ -5454,13 +5870,13 @@
         <v>13.770424</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.599000</v>
+        <v>969.59900000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.057100</v>
+        <v>-80.057100000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>49584.070344</v>
@@ -5469,58 +5885,58 @@
         <v>13.773353</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.599000</v>
+        <v>977.59900000000005</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.050000</v>
+        <v>-88.05</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>49595.039834</v>
+        <v>49595.039834000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>13.776400</v>
+        <v>13.776400000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.853000</v>
+        <v>986.85299999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.156000</v>
+        <v>-103.15600000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>49605.655719</v>
+        <v>49605.655719000002</v>
       </c>
       <c r="AU21" s="1">
         <v>13.779349</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.337000</v>
+        <v>998.33699999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.878000</v>
+        <v>-124.878</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>49616.607902</v>
+        <v>49616.607902000003</v>
       </c>
       <c r="AZ21" s="1">
-        <v>13.782391</v>
+        <v>13.782391000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1008.060000</v>
+        <v>1008.06</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>49627.348736</v>
@@ -5529,300 +5945,300 @@
         <v>13.785375</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.750000</v>
+        <v>1053.75</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.987000</v>
+        <v>-228.98699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>49638.370865</v>
+        <v>49638.370864999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>13.788436</v>
+        <v>13.788436000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1133.540000</v>
+        <v>1133.54</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.491000</v>
+        <v>-365.49099999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>49648.938136</v>
+        <v>49648.938135999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.791372</v>
+        <v>13.791372000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-576.768000</v>
+        <v>-576.76800000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>49660.030132</v>
       </c>
       <c r="BT21" s="1">
-        <v>13.794453</v>
+        <v>13.794453000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.190000</v>
+        <v>1413.19</v>
       </c>
       <c r="BV21" s="1">
-        <v>-802.479000</v>
+        <v>-802.47900000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>49671.399429</v>
+        <v>49671.399428999997</v>
       </c>
       <c r="BY21" s="1">
         <v>13.797611</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.310000</v>
+        <v>1575.31</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1039.050000</v>
+        <v>-1039.05</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>49684.362868</v>
+        <v>49684.362867999997</v>
       </c>
       <c r="CD21" s="1">
         <v>13.801212</v>
       </c>
       <c r="CE21" s="1">
-        <v>1985.460000</v>
+        <v>1985.46</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1591.310000</v>
+        <v>-1591.31</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>49511.161386</v>
       </c>
       <c r="B22" s="1">
-        <v>13.753100</v>
+        <v>13.7531</v>
       </c>
       <c r="C22" s="1">
-        <v>906.111000</v>
+        <v>906.11099999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-193.336000</v>
+        <v>-193.33600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>49521.268860</v>
+        <v>49521.268859999996</v>
       </c>
       <c r="G22" s="1">
         <v>13.755908</v>
       </c>
       <c r="H22" s="1">
-        <v>922.779000</v>
+        <v>922.779</v>
       </c>
       <c r="I22" s="1">
-        <v>-164.319000</v>
+        <v>-164.31899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>49531.468121</v>
+        <v>49531.468120999998</v>
       </c>
       <c r="L22" s="1">
-        <v>13.758741</v>
+        <v>13.758741000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>944.536000</v>
+        <v>944.53599999999994</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.991000</v>
+        <v>-117.991</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>49541.739779</v>
+        <v>49541.739779000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.761594</v>
+        <v>13.761594000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>951.034000</v>
+        <v>951.03399999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.997000</v>
+        <v>-102.997</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>49552.200372</v>
+        <v>49552.200371999999</v>
       </c>
       <c r="V22" s="1">
-        <v>13.764500</v>
+        <v>13.7645</v>
       </c>
       <c r="W22" s="1">
-        <v>957.449000</v>
+        <v>957.44899999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.613800</v>
+        <v>-89.613799999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>49563.071685</v>
+        <v>49563.071685000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>13.767520</v>
+        <v>13.767519999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.648000</v>
+        <v>964.64800000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.322700</v>
+        <v>-80.322699999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>49573.953415</v>
+        <v>49573.953415000004</v>
       </c>
       <c r="AF22" s="1">
         <v>13.770543</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.649000</v>
+        <v>969.649</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.063000</v>
+        <v>-80.063000000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>49584.483479</v>
+        <v>49584.483479000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.773468</v>
+        <v>13.773467999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.607000</v>
+        <v>977.60699999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.016200</v>
+        <v>-88.016199999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>49595.344873</v>
+        <v>49595.344873000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>13.776485</v>
+        <v>13.776484999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.856000</v>
+        <v>986.85599999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.164000</v>
+        <v>-103.164</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>49606.020304</v>
+        <v>49606.020303999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.779450</v>
+        <v>13.779450000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.331000</v>
+        <v>998.33100000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.883000</v>
+        <v>-124.883</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>49616.967468</v>
+        <v>49616.967468000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>13.782491</v>
       </c>
       <c r="BA22" s="1">
-        <v>1008.060000</v>
+        <v>1008.06</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.736000</v>
+        <v>-143.73599999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>49627.709829</v>
+        <v>49627.709828999999</v>
       </c>
       <c r="BE22" s="1">
         <v>13.785475</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.760000</v>
+        <v>1053.76</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.931000</v>
+        <v>-228.93100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>49639.121776</v>
       </c>
       <c r="BJ22" s="1">
-        <v>13.788645</v>
+        <v>13.788645000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1133.580000</v>
+        <v>1133.58</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.490000</v>
+        <v>-365.49</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>49649.363170</v>
+        <v>49649.363169999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>13.791490</v>
+        <v>13.79149</v>
       </c>
       <c r="BP22" s="1">
-        <v>1265.250000</v>
+        <v>1265.25</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-576.765000</v>
+        <v>-576.76499999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>49660.437843</v>
@@ -5831,135 +6247,135 @@
         <v>13.794566</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.130000</v>
+        <v>1413.13</v>
       </c>
       <c r="BV22" s="1">
-        <v>-802.523000</v>
+        <v>-802.52300000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>49671.817092</v>
+        <v>49671.817091999998</v>
       </c>
       <c r="BY22" s="1">
         <v>13.797727</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.440000</v>
+        <v>1575.44</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1039.000000</v>
+        <v>-1039</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>49684.912932</v>
+        <v>49684.912931999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>13.801365</v>
+        <v>13.801365000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1985.700000</v>
+        <v>1985.7</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1590.590000</v>
+        <v>-1590.59</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>49511.535400</v>
+        <v>49511.535400000001</v>
       </c>
       <c r="B23" s="1">
         <v>13.753204</v>
       </c>
       <c r="C23" s="1">
-        <v>906.343000</v>
+        <v>906.34299999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-193.465000</v>
+        <v>-193.465</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>49521.610142</v>
+        <v>49521.610141999998</v>
       </c>
       <c r="G23" s="1">
         <v>13.756003</v>
       </c>
       <c r="H23" s="1">
-        <v>922.447000</v>
+        <v>922.447</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.215000</v>
+        <v>-164.215</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>49531.814333</v>
+        <v>49531.814333000002</v>
       </c>
       <c r="L23" s="1">
         <v>13.758837</v>
       </c>
       <c r="M23" s="1">
-        <v>944.544000</v>
+        <v>944.54399999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.065000</v>
+        <v>-118.065</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>49542.085457</v>
+        <v>49542.085457000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.761690</v>
+        <v>13.76169</v>
       </c>
       <c r="R23" s="1">
-        <v>951.020000</v>
+        <v>951.02</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.013000</v>
+        <v>-103.01300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>49552.549379</v>
+        <v>49552.549378999996</v>
       </c>
       <c r="V23" s="1">
         <v>13.764597</v>
       </c>
       <c r="W23" s="1">
-        <v>957.527000</v>
+        <v>957.52700000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.496500</v>
+        <v>-89.496499999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>49563.492824</v>
+        <v>49563.492824000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>13.767637</v>
+        <v>13.767637000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.708000</v>
+        <v>964.70799999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.281500</v>
+        <v>-80.281499999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>49574.218277</v>
@@ -5968,482 +6384,482 @@
         <v>13.770616</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.665000</v>
+        <v>969.66499999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.073200</v>
+        <v>-80.0732</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>49584.784055</v>
+        <v>49584.784054999996</v>
       </c>
       <c r="AK23" s="1">
-        <v>13.773551</v>
+        <v>13.773550999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.593000</v>
+        <v>977.59299999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.017500</v>
+        <v>-88.017499999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>49595.704473</v>
+        <v>49595.704472999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.776585</v>
+        <v>13.776585000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.883000</v>
+        <v>986.88300000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.153000</v>
+        <v>-103.15300000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>49606.381886</v>
+        <v>49606.381886000003</v>
       </c>
       <c r="AU23" s="1">
         <v>13.779551</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.336000</v>
+        <v>998.33600000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.865000</v>
+        <v>-124.86499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>49617.326574</v>
+        <v>49617.326573999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>13.782591</v>
       </c>
       <c r="BA23" s="1">
-        <v>1008.050000</v>
+        <v>1008.05</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.738000</v>
+        <v>-143.738</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>49628.434013</v>
+        <v>49628.434012999998</v>
       </c>
       <c r="BE23" s="1">
         <v>13.785676</v>
       </c>
       <c r="BF23" s="1">
-        <v>1053.760000</v>
+        <v>1053.76</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.971000</v>
+        <v>-228.971</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>49639.524032</v>
+        <v>49639.524032000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>13.788757</v>
       </c>
       <c r="BK23" s="1">
-        <v>1133.560000</v>
+        <v>1133.56</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.496000</v>
+        <v>-365.49599999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>49649.754515</v>
+        <v>49649.754515000001</v>
       </c>
       <c r="BO23" s="1">
         <v>13.791598</v>
       </c>
       <c r="BP23" s="1">
-        <v>1265.210000</v>
+        <v>1265.21</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-576.760000</v>
+        <v>-576.76</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>49660.866389</v>
+        <v>49660.866389000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.794685</v>
+        <v>13.794684999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.120000</v>
+        <v>1413.12</v>
       </c>
       <c r="BV23" s="1">
-        <v>-802.406000</v>
+        <v>-802.40599999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>49672.567508</v>
       </c>
       <c r="BY23" s="1">
-        <v>13.797935</v>
+        <v>13.797935000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1575.380000</v>
+        <v>1575.38</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1039.020000</v>
+        <v>-1039.02</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>49685.746707</v>
+        <v>49685.746706999998</v>
       </c>
       <c r="CD23" s="1">
         <v>13.801596</v>
       </c>
       <c r="CE23" s="1">
-        <v>1985.380000</v>
+        <v>1985.38</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1592.200000</v>
+        <v>-1592.2</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>49511.877609</v>
+        <v>49511.877609000003</v>
       </c>
       <c r="B24" s="1">
         <v>13.753299</v>
       </c>
       <c r="C24" s="1">
-        <v>906.216000</v>
+        <v>906.21600000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-193.319000</v>
+        <v>-193.31899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>49521.954826</v>
+        <v>49521.954826000001</v>
       </c>
       <c r="G24" s="1">
-        <v>13.756099</v>
+        <v>13.756099000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>922.744000</v>
+        <v>922.74400000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.336000</v>
+        <v>-164.33600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>49532.158062</v>
+        <v>49532.158062000002</v>
       </c>
       <c r="L24" s="1">
-        <v>13.758933</v>
+        <v>13.758933000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>944.506000</v>
+        <v>944.50599999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.027000</v>
+        <v>-118.027</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>49542.504079</v>
+        <v>49542.504078999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>13.761807</v>
+        <v>13.761806999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>951.070000</v>
+        <v>951.07</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.013000</v>
+        <v>-103.01300000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>49553.237505</v>
+        <v>49553.237504999997</v>
       </c>
       <c r="V24" s="1">
-        <v>13.764788</v>
+        <v>13.764787999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>957.366000</v>
+        <v>957.36599999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.485000</v>
+        <v>-89.484999999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>49563.772035</v>
+        <v>49563.772035000002</v>
       </c>
       <c r="AA24" s="1">
         <v>13.767714</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.634000</v>
+        <v>964.63400000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.382000</v>
+        <v>-80.382000000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>49574.559526</v>
+        <v>49574.559525999997</v>
       </c>
       <c r="AF24" s="1">
         <v>13.770711</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.625000</v>
+        <v>969.625</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.084000</v>
+        <v>-80.084000000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>49585.131751</v>
+        <v>49585.131751000001</v>
       </c>
       <c r="AK24" s="1">
         <v>13.773648</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.599000</v>
+        <v>977.59900000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.030900</v>
+        <v>-88.030900000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>49596.064072</v>
+        <v>49596.064072000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>13.776684</v>
+        <v>13.776683999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.844000</v>
+        <v>986.84400000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.170000</v>
+        <v>-103.17</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>49607.113945</v>
+        <v>49607.113944999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>13.779754</v>
+        <v>13.779754000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.346000</v>
+        <v>998.346</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.847000</v>
+        <v>-124.84699999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>49618.043789</v>
+        <v>49618.043789000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>13.782790</v>
+        <v>13.78279</v>
       </c>
       <c r="BA24" s="1">
-        <v>1008.060000</v>
+        <v>1008.06</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.730000</v>
+        <v>-143.72999999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>49628.792686</v>
+        <v>49628.792686000001</v>
       </c>
       <c r="BE24" s="1">
         <v>13.785776</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.750000</v>
+        <v>1053.75</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.959000</v>
+        <v>-228.959</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>49639.900496</v>
+        <v>49639.900496000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.788861</v>
+        <v>13.788861000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1133.560000</v>
+        <v>1133.56</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.495000</v>
+        <v>-365.495</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>49650.180577</v>
+        <v>49650.180576999999</v>
       </c>
       <c r="BO24" s="1">
         <v>13.791717</v>
       </c>
       <c r="BP24" s="1">
-        <v>1265.210000</v>
+        <v>1265.21</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-576.771000</v>
+        <v>-576.77099999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>49661.606425</v>
+        <v>49661.606424999998</v>
       </c>
       <c r="BT24" s="1">
         <v>13.794891</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.060000</v>
+        <v>1413.06</v>
       </c>
       <c r="BV24" s="1">
-        <v>-802.522000</v>
+        <v>-802.52200000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>49672.709859</v>
+        <v>49672.709859000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.797975</v>
+        <v>13.797974999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1575.430000</v>
+        <v>1575.43</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1039.000000</v>
+        <v>-1039</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>49685.991234</v>
+        <v>49685.991234000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>13.801664</v>
+        <v>13.801664000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1987.350000</v>
+        <v>1987.35</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1592.020000</v>
+        <v>-1592.02</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>49512.219666</v>
+        <v>49512.219665999997</v>
       </c>
       <c r="B25" s="1">
         <v>13.753394</v>
       </c>
       <c r="C25" s="1">
-        <v>906.282000</v>
+        <v>906.28200000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-193.112000</v>
+        <v>-193.11199999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>49522.377948</v>
+        <v>49522.377948000001</v>
       </c>
       <c r="G25" s="1">
         <v>13.756216</v>
       </c>
       <c r="H25" s="1">
-        <v>922.460000</v>
+        <v>922.46</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.456000</v>
+        <v>-164.45599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>49532.571692</v>
+        <v>49532.571691999998</v>
       </c>
       <c r="L25" s="1">
         <v>13.759048</v>
       </c>
       <c r="M25" s="1">
-        <v>944.473000</v>
+        <v>944.47299999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.936000</v>
+        <v>-117.93600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>49542.790272</v>
+        <v>49542.790271999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>13.761886</v>
+        <v>13.761886000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>951.059000</v>
+        <v>951.05899999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.028000</v>
+        <v>-103.02800000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>49553.583219</v>
@@ -6452,28 +6868,28 @@
         <v>13.764884</v>
       </c>
       <c r="W25" s="1">
-        <v>957.507000</v>
+        <v>957.50699999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.483100</v>
+        <v>-89.483099999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>49564.121715</v>
+        <v>49564.121715000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>13.767812</v>
+        <v>13.767811999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.640000</v>
+        <v>964.64</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.303800</v>
+        <v>-80.303799999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>49574.902296</v>
@@ -6482,43 +6898,43 @@
         <v>13.770806</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.651000</v>
+        <v>969.65099999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.073500</v>
+        <v>-80.073499999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>49585.477958</v>
+        <v>49585.477958000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>13.773744</v>
+        <v>13.773744000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.634000</v>
+        <v>977.63400000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.021000</v>
+        <v>-88.021000000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>49596.785751</v>
+        <v>49596.785751000003</v>
       </c>
       <c r="AP25" s="1">
         <v>13.776885</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.848000</v>
+        <v>986.84799999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.162000</v>
+        <v>-103.16200000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>49607.504298</v>
@@ -6527,195 +6943,195 @@
         <v>13.779862</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.360000</v>
+        <v>998.36</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.846000</v>
+        <v>-124.846</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>49618.406364</v>
+        <v>49618.406364000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>13.782891</v>
+        <v>13.782890999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1008.070000</v>
+        <v>1008.07</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.734000</v>
+        <v>-143.73400000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>49629.156189</v>
+        <v>49629.156189000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.785877</v>
+        <v>13.785876999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.730000</v>
+        <v>1053.73</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.960000</v>
+        <v>-228.96</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>49640.581997</v>
+        <v>49640.581997000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>13.789051</v>
+        <v>13.789051000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1133.550000</v>
+        <v>1133.55</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.491000</v>
+        <v>-365.49099999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>49650.892336</v>
+        <v>49650.892335999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>13.791915</v>
+        <v>13.791914999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1265.210000</v>
+        <v>1265.21</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-576.762000</v>
+        <v>-576.76199999999994</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>49661.740369</v>
+        <v>49661.740368999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>13.794928</v>
+        <v>13.794928000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1412.960000</v>
+        <v>1412.96</v>
       </c>
       <c r="BV25" s="1">
-        <v>-802.475000</v>
+        <v>-802.47500000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>49673.137908</v>
+        <v>49673.137907999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>13.798094</v>
+        <v>13.798094000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.390000</v>
+        <v>1575.39</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1039.140000</v>
+        <v>-1039.1400000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>49686.526924</v>
+        <v>49686.526923999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>13.801813</v>
+        <v>13.801812999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1985.860000</v>
+        <v>1985.86</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1590.720000</v>
+        <v>-1590.72</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>49512.639495</v>
+        <v>49512.639495000003</v>
       </c>
       <c r="B26" s="1">
         <v>13.753511</v>
       </c>
       <c r="C26" s="1">
-        <v>906.309000</v>
+        <v>906.30899999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-193.339000</v>
+        <v>-193.339</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>49522.660164</v>
+        <v>49522.660164000001</v>
       </c>
       <c r="G26" s="1">
         <v>13.756294</v>
       </c>
       <c r="H26" s="1">
-        <v>923.068000</v>
+        <v>923.06799999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.062000</v>
+        <v>-164.06200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>49532.867836</v>
+        <v>49532.867835999998</v>
       </c>
       <c r="L26" s="1">
-        <v>13.759130</v>
+        <v>13.759130000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>944.564000</v>
+        <v>944.56399999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.033000</v>
+        <v>-118.033</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>49543.145443</v>
+        <v>49543.145443000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>13.761985</v>
+        <v>13.761984999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>951.033000</v>
+        <v>951.03300000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.061000</v>
+        <v>-103.06100000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>49553.926976</v>
+        <v>49553.926976000002</v>
       </c>
       <c r="V26" s="1">
-        <v>13.764980</v>
+        <v>13.76498</v>
       </c>
       <c r="W26" s="1">
-        <v>957.441000</v>
+        <v>957.44100000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.614000</v>
+        <v>-89.614000000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>49564.471395</v>
@@ -6724,180 +7140,181 @@
         <v>13.767909</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.702000</v>
+        <v>964.702</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.348100</v>
+        <v>-80.348100000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>49575.591699</v>
+        <v>49575.591698999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.770998</v>
+        <v>13.770998000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.668000</v>
+        <v>969.66800000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.082100</v>
+        <v>-80.082099999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>49586.203143</v>
+        <v>49586.203142999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>13.773945</v>
+        <v>13.773944999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.610000</v>
+        <v>977.61</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.045500</v>
+        <v>-88.045500000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>49597.142406</v>
+        <v>49597.142405999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.776984</v>
+        <v>13.776984000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.843000</v>
+        <v>986.84299999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.156000</v>
+        <v>-103.15600000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>49607.868395</v>
+        <v>49607.868394999998</v>
       </c>
       <c r="AU26" s="1">
         <v>13.779963</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.353000</v>
+        <v>998.35299999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.873000</v>
+        <v>-124.873</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>49618.797745</v>
+        <v>49618.797745000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>13.782999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1008.080000</v>
+        <v>1008.08</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.717000</v>
+        <v>-143.71700000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>49629.832700</v>
+        <v>49629.832699999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.786065</v>
+        <v>13.786065000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.750000</v>
+        <v>1053.75</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.967000</v>
+        <v>-228.96700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>49640.692638</v>
       </c>
       <c r="BJ26" s="1">
-        <v>13.789081</v>
+        <v>13.789080999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1133.560000</v>
+        <v>1133.56</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.483000</v>
+        <v>-365.483</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>49651.000961</v>
+        <v>49651.000960999998</v>
       </c>
       <c r="BO26" s="1">
         <v>13.791945</v>
       </c>
       <c r="BP26" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-576.783000</v>
+        <v>-576.78300000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>49662.156283</v>
+        <v>49662.156282999997</v>
       </c>
       <c r="BT26" s="1">
         <v>13.795043</v>
       </c>
       <c r="BU26" s="1">
-        <v>1412.920000</v>
+        <v>1412.92</v>
       </c>
       <c r="BV26" s="1">
-        <v>-802.493000</v>
+        <v>-802.49300000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>49673.584306</v>
+        <v>49673.584305999997</v>
       </c>
       <c r="BY26" s="1">
         <v>13.798218</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.480000</v>
+        <v>1575.48</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1039.060000</v>
+        <v>-1039.06</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>49687.069040</v>
+        <v>49687.069040000002</v>
       </c>
       <c r="CD26" s="1">
         <v>13.801964</v>
       </c>
       <c r="CE26" s="1">
-        <v>1986.310000</v>
+        <v>1986.31</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1592.740000</v>
+        <v>-1592.74</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>